--- a/data/outputs/数学期刊(下)_altmetric/75.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/75.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE78"/>
+  <dimension ref="A1:CF78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1029,6 +1034,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1276,6 +1284,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1523,6 +1534,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1778,6 +1792,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2025,6 +2042,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2280,6 +2300,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2535,6 +2558,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2782,6 +2808,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3029,6 +3058,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3278,6 +3310,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3529,6 +3564,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3768,6 +3806,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4023,6 +4064,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4270,6 +4314,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4517,6 +4564,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4764,6 +4814,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5001,6 +5054,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5248,6 +5304,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5495,6 +5554,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5742,6 +5804,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5998,6 +6063,9 @@
       </c>
       <c r="CE22" t="n">
         <v>1</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="23">
@@ -6242,6 +6310,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6481,6 +6552,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6728,6 +6802,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6973,6 +7050,9 @@
         <v>0</v>
       </c>
       <c r="CE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7210,6 +7290,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7458,6 +7541,9 @@
       </c>
       <c r="CE28" t="n">
         <v>0</v>
+      </c>
+      <c r="CF28" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="29">
@@ -7694,6 +7780,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7941,6 +8030,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8188,6 +8280,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8435,6 +8530,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8680,6 +8778,9 @@
         <v>0</v>
       </c>
       <c r="CE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8931,6 +9032,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9182,6 +9286,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9429,6 +9536,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9676,6 +9786,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9916,6 +10029,9 @@
       </c>
       <c r="CE38" t="n">
         <v>0</v>
+      </c>
+      <c r="CF38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -10166,6 +10282,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10413,6 +10532,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10660,6 +10782,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10907,6 +11032,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11148,6 +11276,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11385,6 +11516,9 @@
         <v>0</v>
       </c>
       <c r="CE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11638,6 +11772,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11881,6 +12018,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12126,6 +12266,9 @@
         <v>0</v>
       </c>
       <c r="CE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12371,6 +12514,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12620,6 +12766,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12867,6 +13016,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13106,6 +13258,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13345,6 +13500,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13584,6 +13742,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13823,6 +13984,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14062,6 +14226,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14309,6 +14476,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14556,6 +14726,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14797,6 +14970,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15044,6 +15220,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15287,6 +15466,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15526,6 +15708,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15773,6 +15958,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16020,6 +16208,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16267,6 +16458,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16518,6 +16712,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16765,6 +16962,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17004,6 +17204,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17256,6 +17459,9 @@
       </c>
       <c r="CE68" t="n">
         <v>0</v>
+      </c>
+      <c r="CF68" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="69">
@@ -17492,6 +17698,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17739,6 +17948,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -17978,6 +18190,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18225,6 +18440,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18472,6 +18690,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18711,6 +18932,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -18950,6 +19174,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19187,6 +19414,9 @@
         <v>0</v>
       </c>
       <c r="CE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19440,6 +19670,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19679,6 +19912,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
